--- a/SchedulingData/dynamic12/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>211.46</v>
+        <v>211.06</v>
       </c>
       <c r="D2" t="n">
-        <v>269.24</v>
+        <v>247.7</v>
       </c>
       <c r="E2" t="n">
-        <v>14.756</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>281.6</v>
+        <v>170.26</v>
       </c>
       <c r="D3" t="n">
-        <v>342.72</v>
+        <v>223.18</v>
       </c>
       <c r="E3" t="n">
-        <v>8.988</v>
+        <v>16.732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>251.34</v>
+        <v>222.9</v>
       </c>
       <c r="D4" t="n">
-        <v>286.4</v>
+        <v>286.66</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>13.484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>202.14</v>
+        <v>209.92</v>
       </c>
       <c r="D5" t="n">
-        <v>244.34</v>
+        <v>274.82</v>
       </c>
       <c r="E5" t="n">
-        <v>15.116</v>
+        <v>11.188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207.1</v>
+        <v>229.44</v>
       </c>
       <c r="D6" t="n">
-        <v>266.06</v>
+        <v>262.34</v>
       </c>
       <c r="E6" t="n">
-        <v>15.544</v>
+        <v>14.436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>226.78</v>
+        <v>262.34</v>
       </c>
       <c r="D7" t="n">
-        <v>288.12</v>
+        <v>322.4</v>
       </c>
       <c r="E7" t="n">
-        <v>12.848</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="8">
@@ -580,109 +580,109 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>286.4</v>
+        <v>247.7</v>
       </c>
       <c r="D8" t="n">
-        <v>360.16</v>
+        <v>287.16</v>
       </c>
       <c r="E8" t="n">
-        <v>11.204</v>
+        <v>13.444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>342.72</v>
+        <v>287.16</v>
       </c>
       <c r="D9" t="n">
-        <v>441.82</v>
+        <v>335.7</v>
       </c>
       <c r="E9" t="n">
-        <v>5.148</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>266.06</v>
+        <v>335.7</v>
       </c>
       <c r="D10" t="n">
-        <v>319.46</v>
+        <v>390.32</v>
       </c>
       <c r="E10" t="n">
-        <v>11.344</v>
+        <v>7.888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>244.34</v>
+        <v>274.82</v>
       </c>
       <c r="D11" t="n">
-        <v>284.34</v>
+        <v>306.02</v>
       </c>
       <c r="E11" t="n">
-        <v>11.756</v>
+        <v>8.708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>269.24</v>
+        <v>306.02</v>
       </c>
       <c r="D12" t="n">
-        <v>305.88</v>
+        <v>346.6</v>
       </c>
       <c r="E12" t="n">
-        <v>11.732</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>441.82</v>
+        <v>346.6</v>
       </c>
       <c r="D13" t="n">
-        <v>494.42</v>
+        <v>400.32</v>
       </c>
       <c r="E13" t="n">
         <v>2.028</v>
@@ -690,59 +690,59 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>360.16</v>
+        <v>322.4</v>
       </c>
       <c r="D14" t="n">
-        <v>411.72</v>
+        <v>404.2</v>
       </c>
       <c r="E14" t="n">
-        <v>7.668</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>319.46</v>
+        <v>390.32</v>
       </c>
       <c r="D15" t="n">
-        <v>371.26</v>
+        <v>444.84</v>
       </c>
       <c r="E15" t="n">
-        <v>8.784000000000001</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>411.72</v>
+        <v>223.18</v>
       </c>
       <c r="D16" t="n">
-        <v>466.92</v>
+        <v>287.38</v>
       </c>
       <c r="E16" t="n">
-        <v>5.248</v>
+        <v>13.892</v>
       </c>
     </row>
     <row r="17">
@@ -751,74 +751,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>284.34</v>
+        <v>286.66</v>
       </c>
       <c r="D17" t="n">
-        <v>367.96</v>
+        <v>349.16</v>
       </c>
       <c r="E17" t="n">
-        <v>8.004</v>
+        <v>10.364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>305.88</v>
+        <v>349.16</v>
       </c>
       <c r="D18" t="n">
-        <v>359.42</v>
+        <v>395.28</v>
       </c>
       <c r="E18" t="n">
-        <v>8.507999999999999</v>
+        <v>6.892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>288.12</v>
+        <v>404.2</v>
       </c>
       <c r="D19" t="n">
-        <v>362.36</v>
+        <v>456.1</v>
       </c>
       <c r="E19" t="n">
-        <v>9.544</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>362.36</v>
+        <v>395.28</v>
       </c>
       <c r="D20" t="n">
-        <v>404.38</v>
+        <v>437</v>
       </c>
       <c r="E20" t="n">
-        <v>6.472</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="21">
@@ -827,74 +827,74 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>359.42</v>
+        <v>287.38</v>
       </c>
       <c r="D21" t="n">
-        <v>431.32</v>
+        <v>347.88</v>
       </c>
       <c r="E21" t="n">
-        <v>5.428</v>
+        <v>8.972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>367.96</v>
+        <v>456.1</v>
       </c>
       <c r="D22" t="n">
-        <v>432.48</v>
+        <v>532.96</v>
       </c>
       <c r="E22" t="n">
-        <v>5.672</v>
+        <v>3.304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>432.48</v>
+        <v>347.88</v>
       </c>
       <c r="D23" t="n">
-        <v>475.18</v>
+        <v>418.92</v>
       </c>
       <c r="E23" t="n">
-        <v>3.512</v>
+        <v>5.948</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>431.32</v>
+        <v>250.82</v>
       </c>
       <c r="D24" t="n">
-        <v>503.42</v>
+        <v>309.74</v>
       </c>
       <c r="E24" t="n">
-        <v>2.348</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>371.26</v>
+        <v>400.32</v>
       </c>
       <c r="D25" t="n">
-        <v>442.5</v>
+        <v>478.06</v>
       </c>
       <c r="E25" t="n">
-        <v>5.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>442.5</v>
+        <v>478.06</v>
       </c>
       <c r="D26" t="n">
-        <v>491.92</v>
+        <v>530.76</v>
       </c>
       <c r="E26" t="n">
-        <v>3.428</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,74 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>pond2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>444.84</v>
+      </c>
+      <c r="D27" t="n">
+        <v>505.04</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pond24</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>309.74</v>
+      </c>
+      <c r="D28" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pond8</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>417.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>pond39</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>466.92</v>
-      </c>
-      <c r="D27" t="n">
-        <v>534.42</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.088</v>
+      <c r="C30" t="n">
+        <v>418.92</v>
+      </c>
+      <c r="D30" t="n">
+        <v>471.42</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.788</v>
       </c>
     </row>
   </sheetData>
